--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342710E4-7479-004D-B273-7014999762AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6354A057-08DC-EF48-8542-2174E865E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="195">
   <si>
     <t>DOI</t>
   </si>
@@ -314,9 +314,6 @@
     <t>% G0-G1 phase HSC</t>
   </si>
   <si>
-    <t>Total FGF23 (RU/mL_</t>
-  </si>
-  <si>
     <t>Picomolar (10^x)</t>
   </si>
   <si>
@@ -498,13 +495,136 @@
   </si>
   <si>
     <t>FoB cells (% B cells)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Protein in cell percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>Total FGF23 (RU/mL)</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Optical density</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Biofluid biochemical concentration</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Ct value</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Signal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +638,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -561,19 +689,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,18 +1019,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="233" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +1048,23 @@
       <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -920,8 +1080,23 @@
       <c r="E2" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -937,8 +1112,23 @@
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -954,8 +1144,23 @@
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -971,8 +1176,23 @@
       <c r="E5" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -988,8 +1208,23 @@
       <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1240,23 @@
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1022,8 +1272,23 @@
       <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1039,8 +1304,23 @@
       <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1056,8 +1336,23 @@
       <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1368,23 @@
       <c r="E11" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1090,8 +1400,23 @@
       <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1107,8 +1432,23 @@
       <c r="E13" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1124,8 +1464,23 @@
       <c r="E14" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1141,8 +1496,23 @@
       <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1158,8 +1528,23 @@
       <c r="E16" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1175,8 +1560,23 @@
       <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1192,8 +1592,23 @@
       <c r="E18" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1209,8 +1624,23 @@
       <c r="E19" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1226,8 +1656,23 @@
       <c r="E20" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1243,8 +1688,23 @@
       <c r="E21" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1260,8 +1720,23 @@
       <c r="E22" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1277,8 +1752,23 @@
       <c r="E23" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1294,8 +1784,23 @@
       <c r="E24" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1311,8 +1816,23 @@
       <c r="E25" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1328,8 +1848,23 @@
       <c r="E26" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1345,8 +1880,23 @@
       <c r="E27" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1362,8 +1912,23 @@
       <c r="E28" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1377,10 +1942,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1394,10 +1974,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1411,10 +2006,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1428,10 +2038,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1445,10 +2070,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1462,10 +2102,25 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1479,10 +2134,25 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1496,10 +2166,25 @@
         <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1513,10 +2198,25 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1530,10 +2230,25 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1547,10 +2262,25 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1564,10 +2294,25 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1581,10 +2326,25 @@
         <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1598,10 +2358,25 @@
         <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" t="s">
+        <v>164</v>
+      </c>
+      <c r="I42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1615,10 +2390,25 @@
         <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1632,10 +2422,25 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1649,10 +2454,25 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1666,10 +2486,25 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1683,10 +2518,25 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1700,10 +2550,25 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1717,10 +2582,25 @@
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" t="s">
+        <v>168</v>
+      </c>
+      <c r="J49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1734,10 +2614,25 @@
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1751,10 +2646,25 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1768,10 +2678,25 @@
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -1785,10 +2710,25 @@
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -1802,10 +2742,25 @@
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -1819,10 +2774,25 @@
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1836,10 +2806,25 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -1853,10 +2838,25 @@
         <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -1870,10 +2870,25 @@
         <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -1887,10 +2902,25 @@
         <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -1904,10 +2934,25 @@
         <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1921,10 +2966,25 @@
         <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -1938,10 +2998,25 @@
         <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -1955,10 +3030,25 @@
         <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" t="s">
+        <v>164</v>
+      </c>
+      <c r="J63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -1972,10 +3062,25 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -1989,10 +3094,25 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" t="s">
+        <v>164</v>
+      </c>
+      <c r="H65" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65" t="s">
+        <v>164</v>
+      </c>
+      <c r="J65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -2006,10 +3126,25 @@
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F66" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -2023,10 +3158,25 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F67" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -2040,10 +3190,25 @@
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" t="s">
+        <v>184</v>
+      </c>
+      <c r="I68" t="s">
+        <v>185</v>
+      </c>
+      <c r="J68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -2057,10 +3222,25 @@
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+      <c r="H69" t="s">
+        <v>170</v>
+      </c>
+      <c r="I69" t="s">
+        <v>171</v>
+      </c>
+      <c r="J69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -2074,10 +3254,25 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2091,10 +3286,25 @@
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F71" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2108,10 +3318,25 @@
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -2125,10 +3350,25 @@
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F73" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" t="s">
+        <v>193</v>
+      </c>
+      <c r="I73" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -2142,10 +3382,25 @@
         <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -2159,10 +3414,25 @@
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I75" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -2176,10 +3446,25 @@
         <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H76" t="s">
+        <v>193</v>
+      </c>
+      <c r="I76" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -2193,10 +3478,25 @@
         <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -2210,10 +3510,25 @@
         <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -2227,10 +3542,25 @@
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F79" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" t="s">
+        <v>160</v>
+      </c>
+      <c r="H79" t="s">
+        <v>186</v>
+      </c>
+      <c r="I79" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -2244,10 +3574,25 @@
         <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F80" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" t="s">
+        <v>160</v>
+      </c>
+      <c r="H80" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80" t="s">
+        <v>186</v>
+      </c>
+      <c r="J80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -2261,10 +3606,25 @@
         <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" t="s">
+        <v>124</v>
+      </c>
+      <c r="I81" t="s">
+        <v>185</v>
+      </c>
+      <c r="J81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -2278,10 +3638,25 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -2295,10 +3670,25 @@
         <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F83" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" t="s">
+        <v>164</v>
+      </c>
+      <c r="I83" t="s">
+        <v>164</v>
+      </c>
+      <c r="J83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -2312,10 +3702,25 @@
         <v>7</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" t="s">
+        <v>164</v>
+      </c>
+      <c r="I84" t="s">
+        <v>164</v>
+      </c>
+      <c r="J84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -2329,10 +3734,25 @@
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" t="s">
+        <v>164</v>
+      </c>
+      <c r="I85" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -2346,10 +3766,25 @@
         <v>7</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F86" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" t="s">
+        <v>164</v>
+      </c>
+      <c r="I86" t="s">
+        <v>164</v>
+      </c>
+      <c r="J86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -2363,10 +3798,25 @@
         <v>7</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F87" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
+      <c r="H87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I87" t="s">
+        <v>164</v>
+      </c>
+      <c r="J87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -2380,10 +3830,25 @@
         <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F88" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" t="s">
+        <v>164</v>
+      </c>
+      <c r="H88" t="s">
+        <v>164</v>
+      </c>
+      <c r="I88" t="s">
+        <v>164</v>
+      </c>
+      <c r="J88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -2397,10 +3862,25 @@
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
+      <c r="H89" t="s">
+        <v>164</v>
+      </c>
+      <c r="I89" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -2414,10 +3894,25 @@
         <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F90" t="s">
+        <v>163</v>
+      </c>
+      <c r="G90" t="s">
+        <v>169</v>
+      </c>
+      <c r="H90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I90" t="s">
+        <v>171</v>
+      </c>
+      <c r="J90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -2431,10 +3926,25 @@
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F91" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" t="s">
+        <v>160</v>
+      </c>
+      <c r="H91" t="s">
+        <v>183</v>
+      </c>
+      <c r="I91" t="s">
+        <v>183</v>
+      </c>
+      <c r="J91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -2448,10 +3958,25 @@
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F92" t="s">
+        <v>159</v>
+      </c>
+      <c r="G92" t="s">
+        <v>160</v>
+      </c>
+      <c r="H92" t="s">
+        <v>183</v>
+      </c>
+      <c r="I92" t="s">
+        <v>183</v>
+      </c>
+      <c r="J92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -2465,10 +3990,25 @@
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F93" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" t="s">
+        <v>164</v>
+      </c>
+      <c r="H93" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -2482,10 +4022,25 @@
         <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G94" t="s">
+        <v>164</v>
+      </c>
+      <c r="H94" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -2499,10 +4054,25 @@
         <v>7</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F95" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" t="s">
+        <v>165</v>
+      </c>
+      <c r="H95" t="s">
+        <v>165</v>
+      </c>
+      <c r="I95" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2516,10 +4086,25 @@
         <v>7</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F96" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" t="s">
+        <v>164</v>
+      </c>
+      <c r="H96" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -2533,10 +4118,25 @@
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" t="s">
+        <v>160</v>
+      </c>
+      <c r="H97" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" t="s">
+        <v>161</v>
+      </c>
+      <c r="J97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -2550,10 +4150,25 @@
         <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F98" t="s">
+        <v>159</v>
+      </c>
+      <c r="G98" t="s">
+        <v>160</v>
+      </c>
+      <c r="H98" t="s">
+        <v>161</v>
+      </c>
+      <c r="I98" t="s">
+        <v>161</v>
+      </c>
+      <c r="J98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>56</v>
       </c>
@@ -2567,10 +4182,25 @@
         <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -2584,10 +4214,25 @@
         <v>7</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F100" t="s">
+        <v>159</v>
+      </c>
+      <c r="G100" t="s">
+        <v>160</v>
+      </c>
+      <c r="H100" t="s">
+        <v>168</v>
+      </c>
+      <c r="I100" t="s">
+        <v>168</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>57</v>
       </c>
@@ -2601,10 +4246,25 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F101" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" t="s">
+        <v>160</v>
+      </c>
+      <c r="H101" t="s">
+        <v>168</v>
+      </c>
+      <c r="I101" t="s">
+        <v>168</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -2618,10 +4278,25 @@
         <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="F102" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" t="s">
+        <v>164</v>
+      </c>
+      <c r="H102" t="s">
+        <v>164</v>
+      </c>
+      <c r="I102" t="s">
+        <v>164</v>
+      </c>
+      <c r="J102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>59</v>
       </c>
@@ -2635,10 +4310,25 @@
         <v>7</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F103" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103" t="s">
+        <v>160</v>
+      </c>
+      <c r="H103" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -2652,10 +4342,25 @@
         <v>7</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F104" t="s">
+        <v>163</v>
+      </c>
+      <c r="G104" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" t="s">
+        <v>194</v>
+      </c>
+      <c r="I104" t="s">
+        <v>194</v>
+      </c>
+      <c r="J104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -2669,10 +4374,25 @@
         <v>7</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" t="s">
+        <v>165</v>
+      </c>
+      <c r="H105" t="s">
+        <v>167</v>
+      </c>
+      <c r="I105" t="s">
+        <v>165</v>
+      </c>
+      <c r="J105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>61</v>
       </c>
@@ -2686,10 +4406,25 @@
         <v>7</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>163</v>
+      </c>
+      <c r="G106" t="s">
+        <v>165</v>
+      </c>
+      <c r="H106" t="s">
+        <v>167</v>
+      </c>
+      <c r="I106" t="s">
+        <v>165</v>
+      </c>
+      <c r="J106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -2703,10 +4438,25 @@
         <v>7</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="F107" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107" t="s">
+        <v>189</v>
+      </c>
+      <c r="I107" t="s">
+        <v>165</v>
+      </c>
+      <c r="J107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -2720,10 +4470,25 @@
         <v>7</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F108" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108" t="s">
+        <v>187</v>
+      </c>
+      <c r="I108" t="s">
+        <v>188</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -2737,10 +4502,25 @@
         <v>7</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="F109" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" t="s">
+        <v>165</v>
+      </c>
+      <c r="H109" t="s">
+        <v>167</v>
+      </c>
+      <c r="I109" t="s">
+        <v>165</v>
+      </c>
+      <c r="J109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -2754,10 +4534,25 @@
         <v>7</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="F110" t="s">
+        <v>163</v>
+      </c>
+      <c r="G110" t="s">
+        <v>190</v>
+      </c>
+      <c r="H110" t="s">
+        <v>190</v>
+      </c>
+      <c r="I110" t="s">
+        <v>190</v>
+      </c>
+      <c r="J110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>65</v>
       </c>
@@ -2771,10 +4566,25 @@
         <v>7</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="F111" t="s">
+        <v>163</v>
+      </c>
+      <c r="G111" t="s">
+        <v>190</v>
+      </c>
+      <c r="H111" t="s">
+        <v>190</v>
+      </c>
+      <c r="I111" t="s">
+        <v>190</v>
+      </c>
+      <c r="J111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>65</v>
       </c>
@@ -2788,10 +4598,25 @@
         <v>7</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="F112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112" t="s">
+        <v>190</v>
+      </c>
+      <c r="H112" t="s">
+        <v>190</v>
+      </c>
+      <c r="I112" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -2805,10 +4630,25 @@
         <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="F113" t="s">
+        <v>163</v>
+      </c>
+      <c r="G113" t="s">
+        <v>190</v>
+      </c>
+      <c r="H113" t="s">
+        <v>190</v>
+      </c>
+      <c r="I113" t="s">
+        <v>190</v>
+      </c>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -2822,10 +4662,25 @@
         <v>7</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="F114" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" t="s">
+        <v>190</v>
+      </c>
+      <c r="H114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I114" t="s">
+        <v>190</v>
+      </c>
+      <c r="J114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>65</v>
       </c>
@@ -2839,10 +4694,25 @@
         <v>7</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="F115" t="s">
+        <v>163</v>
+      </c>
+      <c r="G115" t="s">
+        <v>190</v>
+      </c>
+      <c r="H115" t="s">
+        <v>190</v>
+      </c>
+      <c r="I115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -2856,10 +4726,25 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="F116" t="s">
+        <v>159</v>
+      </c>
+      <c r="G116" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116" t="s">
+        <v>191</v>
+      </c>
+      <c r="I116" t="s">
+        <v>191</v>
+      </c>
+      <c r="J116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>66</v>
       </c>
@@ -2873,10 +4758,25 @@
         <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G117" t="s">
+        <v>165</v>
+      </c>
+      <c r="H117" t="s">
+        <v>165</v>
+      </c>
+      <c r="I117" t="s">
+        <v>165</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -2890,10 +4790,25 @@
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118" t="s">
+        <v>191</v>
+      </c>
+      <c r="I118" t="s">
+        <v>191</v>
+      </c>
+      <c r="J118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>66</v>
       </c>
@@ -2907,10 +4822,25 @@
         <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F119" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" t="s">
+        <v>165</v>
+      </c>
+      <c r="H119" t="s">
+        <v>165</v>
+      </c>
+      <c r="I119" t="s">
+        <v>165</v>
+      </c>
+      <c r="J119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>67</v>
       </c>
@@ -2924,10 +4854,25 @@
         <v>7</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G120" t="s">
+        <v>164</v>
+      </c>
+      <c r="H120" t="s">
+        <v>164</v>
+      </c>
+      <c r="I120" t="s">
+        <v>164</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>67</v>
       </c>
@@ -2941,10 +4886,25 @@
         <v>7</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F121" t="s">
+        <v>163</v>
+      </c>
+      <c r="G121" t="s">
+        <v>164</v>
+      </c>
+      <c r="H121" t="s">
+        <v>164</v>
+      </c>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -2958,10 +4918,25 @@
         <v>7</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F122" t="s">
+        <v>163</v>
+      </c>
+      <c r="G122" t="s">
+        <v>164</v>
+      </c>
+      <c r="H122" t="s">
+        <v>164</v>
+      </c>
+      <c r="I122" t="s">
+        <v>164</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>68</v>
       </c>
@@ -2975,10 +4950,25 @@
         <v>7</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" t="s">
+        <v>168</v>
+      </c>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+      <c r="J123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -2992,10 +4982,25 @@
         <v>7</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F124" t="s">
+        <v>163</v>
+      </c>
+      <c r="G124" t="s">
+        <v>165</v>
+      </c>
+      <c r="H124" t="s">
+        <v>167</v>
+      </c>
+      <c r="I124" t="s">
+        <v>165</v>
+      </c>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>69</v>
       </c>
@@ -3009,10 +5014,25 @@
         <v>7</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="F125" t="s">
+        <v>163</v>
+      </c>
+      <c r="G125" t="s">
+        <v>165</v>
+      </c>
+      <c r="H125" t="s">
+        <v>167</v>
+      </c>
+      <c r="I125" t="s">
+        <v>165</v>
+      </c>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>69</v>
       </c>
@@ -3026,7 +5046,22 @@
         <v>7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="F126" t="s">
+        <v>163</v>
+      </c>
+      <c r="G126" t="s">
+        <v>165</v>
+      </c>
+      <c r="H126" t="s">
+        <v>167</v>
+      </c>
+      <c r="I126" t="s">
+        <v>165</v>
+      </c>
+      <c r="J126" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6354A057-08DC-EF48-8542-2174E865E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95AA06-C5C1-944A-9F3A-9B527DA766AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="321">
   <si>
     <t>DOI</t>
   </si>
@@ -618,6 +618,384 @@
   </si>
   <si>
     <t>Signal</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abj3289_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abj3289_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abj3289_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm6863_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn5029_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn5029_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn9674_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1557_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1557_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1815_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1930_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1930_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo3332_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo3332_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo3332_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo5217_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo5217_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp8982_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp8982_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp9952_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp9952_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp9952_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abp9952_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq2915_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq2915_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq3679_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq3679_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq3679_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq5068_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq5068_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq5068_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig18</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig19</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig20</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6089_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6225_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6225_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6225_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6225_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6225_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6288_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6288_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6288_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add1175_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add4897_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add5275_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add5275_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add5275_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add5275_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add8280_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade0550_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2581_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2581_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3157_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3157_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6023_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6509_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6509_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6509_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade8732_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade8732_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf1690_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf1690_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf2059_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf2059_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf2059_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf2059_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf3843_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf3843_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf3843_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5302_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf6732_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf8977_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg1656_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg1656_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg2887_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg3983_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6752_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6822_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg8982_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg8982_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg8982_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg8982_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh0908_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh0908_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh0908_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh7668_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi7244_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi7244_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi7244_zero_fig3</t>
   </si>
 </sst>
 </file>
@@ -1019,168 +1397,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="233" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+      <selection activeCell="A86" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>159</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
         <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
-        <v>163</v>
-      </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
         <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
         <v>190</v>
@@ -1189,190 +1579,208 @@
         <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
-        <v>163</v>
-      </c>
       <c r="G6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" t="s">
         <v>165</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>166</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>165</v>
       </c>
-      <c r="J6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
       <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
         <v>165</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>166</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>165</v>
       </c>
-      <c r="J7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>163</v>
-      </c>
       <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
         <v>165</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>167</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>165</v>
       </c>
-      <c r="J8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>159</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>160</v>
-      </c>
-      <c r="H9" t="s">
-        <v>168</v>
       </c>
       <c r="I9" t="s">
         <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>159</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>160</v>
-      </c>
-      <c r="H10" t="s">
-        <v>168</v>
       </c>
       <c r="I10" t="s">
         <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
         <v>164</v>
@@ -1381,222 +1789,243 @@
         <v>164</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
       <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
         <v>169</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>170</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>171</v>
       </c>
-      <c r="J12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
-        <v>163</v>
-      </c>
       <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
         <v>169</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>170</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>171</v>
       </c>
-      <c r="J13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>159</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>160</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>172</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>168</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>159</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>160</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>172</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>168</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>159</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>160</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>172</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>168</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>159</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>160</v>
-      </c>
-      <c r="H17" t="s">
-        <v>161</v>
       </c>
       <c r="I17" t="s">
         <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F18" t="s">
-        <v>163</v>
-      </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
         <v>164</v>
@@ -1605,126 +2034,138 @@
         <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
-        <v>163</v>
-      </c>
       <c r="G19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" t="s">
         <v>169</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>173</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
-        <v>163</v>
-      </c>
       <c r="G20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
         <v>169</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>173</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>174</v>
       </c>
-      <c r="J20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>159</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>160</v>
-      </c>
-      <c r="H21" t="s">
-        <v>192</v>
       </c>
       <c r="I21" t="s">
         <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F22" t="s">
-        <v>163</v>
-      </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
         <v>164</v>
@@ -1733,30 +2174,33 @@
         <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F23" t="s">
-        <v>163</v>
-      </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" t="s">
         <v>164</v>
@@ -1765,62 +2209,68 @@
         <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>159</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" t="s">
-        <v>161</v>
       </c>
       <c r="I24" t="s">
         <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s">
-        <v>163</v>
-      </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
         <v>165</v>
@@ -1829,30 +2279,33 @@
         <v>165</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F26" t="s">
-        <v>163</v>
-      </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
         <v>165</v>
@@ -1861,158 +2314,173 @@
         <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="s">
-        <v>163</v>
-      </c>
       <c r="G27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" t="s">
         <v>165</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>167</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>165</v>
       </c>
-      <c r="J27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
-        <v>163</v>
-      </c>
       <c r="G28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
         <v>165</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>167</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>165</v>
       </c>
-      <c r="J28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>159</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>160</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>176</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>177</v>
       </c>
-      <c r="J29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>159</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>160</v>
-      </c>
-      <c r="H30" t="s">
-        <v>177</v>
       </c>
       <c r="I30" t="s">
         <v>177</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
-        <v>163</v>
-      </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
         <v>164</v>
@@ -2021,30 +2489,33 @@
         <v>164</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F32" t="s">
-        <v>163</v>
-      </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
         <v>164</v>
@@ -2053,30 +2524,33 @@
         <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F33" t="s">
-        <v>163</v>
-      </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
         <v>164</v>
@@ -2085,94 +2559,103 @@
         <v>164</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>159</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>160</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>176</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>177</v>
       </c>
-      <c r="J34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>160</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>176</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>177</v>
       </c>
-      <c r="J35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F36" t="s">
-        <v>163</v>
-      </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H36" t="s">
         <v>164</v>
@@ -2181,30 +2664,33 @@
         <v>164</v>
       </c>
       <c r="J36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F37" t="s">
-        <v>163</v>
-      </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
         <v>164</v>
@@ -2213,158 +2699,173 @@
         <v>164</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>159</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>160</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>178</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>168</v>
       </c>
-      <c r="J38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>159</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>160</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>178</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>168</v>
       </c>
-      <c r="J39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>159</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>160</v>
-      </c>
-      <c r="H40" t="s">
-        <v>179</v>
       </c>
       <c r="I40" t="s">
         <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>159</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>160</v>
-      </c>
-      <c r="H41" t="s">
-        <v>179</v>
       </c>
       <c r="I41" t="s">
         <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F42" t="s">
-        <v>163</v>
-      </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H42" t="s">
         <v>164</v>
@@ -2373,30 +2874,33 @@
         <v>164</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="K42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
         <v>164</v>
@@ -2405,62 +2909,68 @@
         <v>164</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F44" t="s">
-        <v>163</v>
-      </c>
       <c r="G44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" t="s">
         <v>165</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>180</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>165</v>
       </c>
-      <c r="J44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="K44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>35</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F45" t="s">
-        <v>163</v>
-      </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
         <v>164</v>
@@ -2469,222 +2979,243 @@
         <v>164</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F46" t="s">
-        <v>163</v>
-      </c>
       <c r="G46" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" t="s">
         <v>165</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>180</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>165</v>
       </c>
-      <c r="J46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="K46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>20</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>159</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>160</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>178</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>168</v>
       </c>
-      <c r="J47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="K47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>159</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>160</v>
-      </c>
-      <c r="H48" t="s">
-        <v>179</v>
       </c>
       <c r="I48" t="s">
         <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="K48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>159</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>160</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>178</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>168</v>
       </c>
-      <c r="J49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>159</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>160</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>178</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>168</v>
       </c>
-      <c r="J50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>159</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>160</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>178</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>168</v>
       </c>
-      <c r="J51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F52" t="s">
-        <v>163</v>
-      </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H52" t="s">
         <v>165</v>
@@ -2693,190 +3224,208 @@
         <v>165</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>159</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>160</v>
-      </c>
-      <c r="H53" t="s">
-        <v>181</v>
       </c>
       <c r="I53" t="s">
         <v>181</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
         <v>41</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>159</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>160</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>182</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>177</v>
       </c>
-      <c r="J54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
         <v>41</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>159</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>160</v>
-      </c>
-      <c r="H55" t="s">
-        <v>181</v>
       </c>
       <c r="I55" t="s">
         <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" t="s">
         <v>41</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>20</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>159</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>160</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>182</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>177</v>
       </c>
-      <c r="J56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>36</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>159</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>160</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>182</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>177</v>
       </c>
-      <c r="J57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F58" t="s">
-        <v>163</v>
-      </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
         <v>164</v>
@@ -2885,30 +3434,33 @@
         <v>164</v>
       </c>
       <c r="J58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="K58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
         <v>42</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F59" t="s">
-        <v>163</v>
-      </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H59" t="s">
         <v>164</v>
@@ -2917,30 +3469,33 @@
         <v>164</v>
       </c>
       <c r="J59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="K59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" t="s">
         <v>42</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F60" t="s">
-        <v>163</v>
-      </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
         <v>164</v>
@@ -2949,62 +3504,68 @@
         <v>164</v>
       </c>
       <c r="J60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="K60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
         <v>43</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F61" t="s">
-        <v>163</v>
-      </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
         <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F62" t="s">
-        <v>163</v>
-      </c>
       <c r="G62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
         <v>165</v>
@@ -3013,30 +3574,33 @@
         <v>165</v>
       </c>
       <c r="J62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" t="s">
         <v>45</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F63" t="s">
-        <v>163</v>
-      </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H63" t="s">
         <v>164</v>
@@ -3045,62 +3609,68 @@
         <v>164</v>
       </c>
       <c r="J63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="K63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
         <v>45</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>159</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>160</v>
-      </c>
-      <c r="H64" t="s">
-        <v>183</v>
       </c>
       <c r="I64" t="s">
         <v>183</v>
       </c>
       <c r="J64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="K64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F65" t="s">
-        <v>163</v>
-      </c>
       <c r="G65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H65" t="s">
         <v>164</v>
@@ -3109,30 +3679,33 @@
         <v>164</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="K65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>20</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F66" t="s">
-        <v>163</v>
-      </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
         <v>164</v>
@@ -3141,30 +3714,33 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="K66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
         <v>46</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F67" t="s">
-        <v>163</v>
-      </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H67" t="s">
         <v>164</v>
@@ -3173,478 +3749,523 @@
         <v>164</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="K67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>159</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>160</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>184</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>185</v>
       </c>
-      <c r="J68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
         <v>48</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F69" t="s">
-        <v>163</v>
-      </c>
       <c r="G69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" t="s">
         <v>169</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>170</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>171</v>
       </c>
-      <c r="J69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
         <v>48</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F70" t="s">
-        <v>163</v>
-      </c>
       <c r="G70" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" t="s">
         <v>169</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>170</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>171</v>
       </c>
-      <c r="J70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
         <v>49</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>159</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>160</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>178</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>168</v>
       </c>
-      <c r="J71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="K71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>159</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>160</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>178</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>168</v>
       </c>
-      <c r="J72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="K72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
         <v>50</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>159</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>160</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>193</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>177</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" t="s">
         <v>50</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>159</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>160</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>193</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>177</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" t="s">
         <v>50</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>159</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>160</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>193</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>177</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" t="s">
         <v>50</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>20</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>159</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>160</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>193</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>177</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" t="s">
         <v>50</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>36</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>159</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>160</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>193</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>177</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>37</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>159</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>160</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>193</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>177</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>159</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>160</v>
-      </c>
-      <c r="H79" t="s">
-        <v>186</v>
       </c>
       <c r="I79" t="s">
         <v>186</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="K79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" t="s">
         <v>51</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>159</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>160</v>
-      </c>
-      <c r="H80" t="s">
-        <v>186</v>
       </c>
       <c r="I80" t="s">
         <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="K80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" t="s">
         <v>51</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>159</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>160</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>124</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>185</v>
       </c>
-      <c r="J81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="K81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
         <v>52</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F82" t="s">
-        <v>163</v>
-      </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H82" t="s">
         <v>164</v>
@@ -3653,30 +4274,33 @@
         <v>164</v>
       </c>
       <c r="J82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="K82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
         <v>52</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F83" t="s">
-        <v>163</v>
-      </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H83" t="s">
         <v>164</v>
@@ -3685,30 +4309,33 @@
         <v>164</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="K83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" t="s">
         <v>52</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F84" t="s">
-        <v>163</v>
-      </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H84" t="s">
         <v>164</v>
@@ -3717,30 +4344,33 @@
         <v>164</v>
       </c>
       <c r="J84" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="K84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
         <v>52</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>20</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F85" t="s">
-        <v>163</v>
-      </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H85" t="s">
         <v>164</v>
@@ -3749,30 +4379,33 @@
         <v>164</v>
       </c>
       <c r="J85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="K85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s">
         <v>52</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F86" t="s">
-        <v>163</v>
-      </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H86" t="s">
         <v>164</v>
@@ -3781,30 +4414,33 @@
         <v>164</v>
       </c>
       <c r="J86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="K86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
         <v>52</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>37</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F87" t="s">
-        <v>163</v>
-      </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H87" t="s">
         <v>164</v>
@@ -3813,30 +4449,33 @@
         <v>164</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="K87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B88" t="s">
         <v>52</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>38</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F88" t="s">
-        <v>163</v>
-      </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H88" t="s">
         <v>164</v>
@@ -3845,30 +4484,33 @@
         <v>164</v>
       </c>
       <c r="J88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="K88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F89" t="s">
-        <v>163</v>
-      </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H89" t="s">
         <v>164</v>
@@ -3877,190 +4519,208 @@
         <v>164</v>
       </c>
       <c r="J89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="K89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" t="s">
         <v>53</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F90" t="s">
-        <v>163</v>
-      </c>
       <c r="G90" t="s">
+        <v>163</v>
+      </c>
+      <c r="H90" t="s">
         <v>169</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>170</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>171</v>
       </c>
-      <c r="J90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="K90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" t="s">
         <v>54</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>159</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>160</v>
-      </c>
-      <c r="H91" t="s">
-        <v>183</v>
       </c>
       <c r="I91" t="s">
         <v>183</v>
       </c>
       <c r="J91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="K91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>159</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>160</v>
-      </c>
-      <c r="H92" t="s">
-        <v>183</v>
       </c>
       <c r="I92" t="s">
         <v>183</v>
       </c>
       <c r="J92" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="K92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
         <v>55</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F93" t="s">
-        <v>163</v>
-      </c>
       <c r="G93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I93" t="s">
         <v>111</v>
       </c>
       <c r="J93" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" t="s">
         <v>55</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F94" t="s">
-        <v>163</v>
-      </c>
       <c r="G94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I94" t="s">
         <v>111</v>
       </c>
       <c r="J94" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="K94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" t="s">
         <v>55</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F95" t="s">
-        <v>163</v>
-      </c>
       <c r="G95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H95" t="s">
         <v>165</v>
@@ -4069,222 +4729,243 @@
         <v>165</v>
       </c>
       <c r="J95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>165</v>
+      </c>
+      <c r="K95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" t="s">
         <v>55</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>20</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F96" t="s">
-        <v>163</v>
-      </c>
       <c r="G96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="I96" t="s">
         <v>111</v>
       </c>
       <c r="J96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s">
         <v>56</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>159</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>160</v>
-      </c>
-      <c r="H97" t="s">
-        <v>161</v>
       </c>
       <c r="I97" t="s">
         <v>161</v>
       </c>
       <c r="J97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+        <v>161</v>
+      </c>
+      <c r="K97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" t="s">
         <v>56</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>8</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>159</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>160</v>
-      </c>
-      <c r="H98" t="s">
-        <v>161</v>
       </c>
       <c r="I98" t="s">
         <v>161</v>
       </c>
       <c r="J98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="K98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" t="s">
         <v>56</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>159</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>160</v>
-      </c>
-      <c r="H99" t="s">
-        <v>161</v>
       </c>
       <c r="I99" t="s">
         <v>161</v>
       </c>
       <c r="J99" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="K99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" t="s">
         <v>57</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
       <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>159</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>160</v>
-      </c>
-      <c r="H100" t="s">
-        <v>168</v>
       </c>
       <c r="I100" t="s">
         <v>168</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="s">
+        <v>168</v>
+      </c>
+      <c r="K100">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" t="s">
         <v>57</v>
       </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
       <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>159</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>160</v>
-      </c>
-      <c r="H101" t="s">
-        <v>168</v>
       </c>
       <c r="I101" t="s">
         <v>168</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="s">
+        <v>168</v>
+      </c>
+      <c r="K101">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s">
         <v>58</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
       <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F102" t="s">
-        <v>163</v>
-      </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H102" t="s">
         <v>164</v>
@@ -4293,254 +4974,278 @@
         <v>164</v>
       </c>
       <c r="J102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="K102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" t="s">
         <v>59</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>6</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>159</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>160</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>187</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>188</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" t="s">
         <v>60</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
       <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
         <v>6</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F104" t="s">
-        <v>163</v>
-      </c>
       <c r="G104" t="s">
+        <v>163</v>
+      </c>
+      <c r="H104" t="s">
         <v>160</v>
-      </c>
-      <c r="H104" t="s">
-        <v>194</v>
       </c>
       <c r="I104" t="s">
         <v>194</v>
       </c>
       <c r="J104" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="K104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" t="s">
         <v>61</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
       <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>6</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F105" t="s">
-        <v>163</v>
-      </c>
       <c r="G105" t="s">
+        <v>163</v>
+      </c>
+      <c r="H105" t="s">
         <v>165</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>167</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>165</v>
       </c>
-      <c r="J105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="K105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" t="s">
         <v>61</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
       <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F106" t="s">
-        <v>163</v>
-      </c>
       <c r="G106" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" t="s">
         <v>165</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>167</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>165</v>
       </c>
-      <c r="J106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="K106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s">
         <v>62</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>6</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F107" t="s">
-        <v>163</v>
-      </c>
       <c r="G107" t="s">
+        <v>163</v>
+      </c>
+      <c r="H107" t="s">
         <v>165</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>189</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>165</v>
       </c>
-      <c r="J107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="K107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
         <v>63</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>159</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>160</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>187</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>188</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B109" t="s">
         <v>64</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
       <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
         <v>6</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F109" t="s">
-        <v>163</v>
-      </c>
       <c r="G109" t="s">
+        <v>163</v>
+      </c>
+      <c r="H109" t="s">
         <v>165</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>167</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>165</v>
       </c>
-      <c r="J109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="K109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" t="s">
         <v>65</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
       <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F110" t="s">
-        <v>163</v>
-      </c>
       <c r="G110" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H110" t="s">
         <v>190</v>
@@ -4549,30 +5254,33 @@
         <v>190</v>
       </c>
       <c r="J110" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="K110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" t="s">
         <v>65</v>
       </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
       <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F111" t="s">
-        <v>163</v>
-      </c>
       <c r="G111" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H111" t="s">
         <v>190</v>
@@ -4581,30 +5289,33 @@
         <v>190</v>
       </c>
       <c r="J111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="K111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" t="s">
         <v>65</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
         <v>9</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F112" t="s">
-        <v>163</v>
-      </c>
       <c r="G112" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H112" t="s">
         <v>190</v>
@@ -4613,30 +5324,33 @@
         <v>190</v>
       </c>
       <c r="J112" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" t="s">
         <v>65</v>
       </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
       <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>20</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F113" t="s">
-        <v>163</v>
-      </c>
       <c r="G113" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H113" t="s">
         <v>190</v>
@@ -4645,30 +5359,33 @@
         <v>190</v>
       </c>
       <c r="J113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="K113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" t="s">
         <v>65</v>
       </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
       <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>36</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F114" t="s">
-        <v>163</v>
-      </c>
       <c r="G114" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H114" t="s">
         <v>190</v>
@@ -4677,30 +5394,33 @@
         <v>190</v>
       </c>
       <c r="J114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="K114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" t="s">
         <v>65</v>
       </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
       <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
         <v>37</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F115" t="s">
-        <v>163</v>
-      </c>
       <c r="G115" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H115" t="s">
         <v>190</v>
@@ -4709,62 +5429,68 @@
         <v>190</v>
       </c>
       <c r="J115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="K115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B116" t="s">
         <v>66</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
       <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>159</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>160</v>
-      </c>
-      <c r="H116" t="s">
-        <v>191</v>
       </c>
       <c r="I116" t="s">
         <v>191</v>
       </c>
       <c r="J116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="K116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" t="s">
         <v>66</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
       <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F117" t="s">
-        <v>163</v>
-      </c>
       <c r="G117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H117" t="s">
         <v>165</v>
@@ -4773,62 +5499,68 @@
         <v>165</v>
       </c>
       <c r="J117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+        <v>165</v>
+      </c>
+      <c r="K117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B118" t="s">
         <v>66</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
       <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
         <v>9</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>159</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>160</v>
-      </c>
-      <c r="H118" t="s">
-        <v>191</v>
       </c>
       <c r="I118" t="s">
         <v>191</v>
       </c>
       <c r="J118" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+        <v>191</v>
+      </c>
+      <c r="K118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" t="s">
         <v>66</v>
       </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
       <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
         <v>20</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F119" t="s">
-        <v>163</v>
-      </c>
       <c r="G119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H119" t="s">
         <v>165</v>
@@ -4837,30 +5569,33 @@
         <v>165</v>
       </c>
       <c r="J119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+        <v>165</v>
+      </c>
+      <c r="K119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B120" t="s">
         <v>67</v>
       </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
       <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F120" t="s">
-        <v>163</v>
-      </c>
       <c r="G120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H120" t="s">
         <v>164</v>
@@ -4868,31 +5603,34 @@
       <c r="I120" t="s">
         <v>164</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="s">
+        <v>164</v>
+      </c>
+      <c r="K120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" t="s">
         <v>67</v>
       </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
       <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F121" t="s">
-        <v>163</v>
-      </c>
       <c r="G121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H121" t="s">
         <v>164</v>
@@ -4900,31 +5638,34 @@
       <c r="I121" t="s">
         <v>164</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="s">
+        <v>164</v>
+      </c>
+      <c r="K121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" t="s">
         <v>67</v>
       </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
       <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F122" t="s">
-        <v>163</v>
-      </c>
       <c r="G122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H122" t="s">
         <v>164</v>
@@ -4932,135 +5673,150 @@
       <c r="I122" t="s">
         <v>164</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="s">
+        <v>164</v>
+      </c>
+      <c r="K122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" t="s">
         <v>68</v>
       </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
       <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>159</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>160</v>
-      </c>
-      <c r="H123" t="s">
-        <v>168</v>
       </c>
       <c r="I123" t="s">
         <v>168</v>
       </c>
       <c r="J123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="K123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" t="s">
         <v>69</v>
       </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
       <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
         <v>6</v>
       </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F124" t="s">
-        <v>163</v>
-      </c>
       <c r="G124" t="s">
+        <v>163</v>
+      </c>
+      <c r="H124" t="s">
         <v>165</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>167</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>165</v>
       </c>
-      <c r="J124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="K124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" t="s">
         <v>69</v>
       </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
       <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F125" t="s">
-        <v>163</v>
-      </c>
       <c r="G125" t="s">
+        <v>163</v>
+      </c>
+      <c r="H125" t="s">
         <v>165</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>167</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>165</v>
       </c>
-      <c r="J125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="K125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B126" t="s">
         <v>69</v>
       </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
       <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
         <v>9</v>
       </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F126" t="s">
-        <v>163</v>
-      </c>
       <c r="G126" t="s">
+        <v>163</v>
+      </c>
+      <c r="H126" t="s">
         <v>165</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>167</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>165</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>162</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95AA06-C5C1-944A-9F3A-9B527DA766AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AEB3F4-E0C2-7C44-982B-D6CE3361B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,9 +605,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -996,6 +993,9 @@
   </si>
   <si>
     <t>10.1126:scitranslmed.adi7244_zero_fig3</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="233" workbookViewId="0">
-      <selection activeCell="A86" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G93" zoomScale="233" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1573,13 +1573,13 @@
         <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
         <v>162</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2136,10 +2136,10 @@
         <v>160</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="K21" t="s">
         <v>162</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2804,7 +2804,7 @@
         <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
         <v>162</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2839,7 +2839,7 @@
         <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
         <v>162</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -3084,7 +3084,7 @@
         <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
         <v>162</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s">
         <v>43</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
         <v>47</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3956,7 +3956,7 @@
         <v>160</v>
       </c>
       <c r="I73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J73" t="s">
         <v>177</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
@@ -3991,7 +3991,7 @@
         <v>160</v>
       </c>
       <c r="I74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J74" t="s">
         <v>177</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s">
         <v>50</v>
@@ -4026,7 +4026,7 @@
         <v>160</v>
       </c>
       <c r="I75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J75" t="s">
         <v>177</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
         <v>50</v>
@@ -4061,7 +4061,7 @@
         <v>160</v>
       </c>
       <c r="I76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J76" t="s">
         <v>177</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
@@ -4096,7 +4096,7 @@
         <v>160</v>
       </c>
       <c r="I77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J77" t="s">
         <v>177</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
@@ -4131,7 +4131,7 @@
         <v>160</v>
       </c>
       <c r="I78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J78" t="s">
         <v>177</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -4169,7 +4169,7 @@
         <v>186</v>
       </c>
       <c r="J79" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="K79" t="s">
         <v>162</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -4204,7 +4204,7 @@
         <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="K80" t="s">
         <v>162</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
         <v>52</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
         <v>52</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
         <v>52</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
         <v>54</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
         <v>55</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s">
         <v>55</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
         <v>55</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
         <v>56</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B101" t="s">
         <v>57</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B102" t="s">
         <v>58</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
@@ -5041,10 +5041,10 @@
         <v>160</v>
       </c>
       <c r="I104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J104" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="K104" t="s">
         <v>162</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B105" t="s">
         <v>61</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
         <v>61</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B109" t="s">
         <v>64</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -5248,13 +5248,13 @@
         <v>163</v>
       </c>
       <c r="H110" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I110" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J110" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K110" t="s">
         <v>162</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -5283,13 +5283,13 @@
         <v>163</v>
       </c>
       <c r="H111" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I111" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J111" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K111" t="s">
         <v>162</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -5318,13 +5318,13 @@
         <v>163</v>
       </c>
       <c r="H112" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I112" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J112" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K112" t="s">
         <v>162</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -5353,13 +5353,13 @@
         <v>163</v>
       </c>
       <c r="H113" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I113" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J113" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K113" t="s">
         <v>162</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -5388,13 +5388,13 @@
         <v>163</v>
       </c>
       <c r="H114" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I114" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J114" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K114" t="s">
         <v>162</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -5423,13 +5423,13 @@
         <v>163</v>
       </c>
       <c r="H115" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="I115" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J115" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K115" t="s">
         <v>162</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B116" t="s">
         <v>66</v>
@@ -5461,10 +5461,10 @@
         <v>160</v>
       </c>
       <c r="I116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J116" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="K116" t="s">
         <v>162</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B117" t="s">
         <v>66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B118" t="s">
         <v>66</v>
@@ -5531,10 +5531,10 @@
         <v>160</v>
       </c>
       <c r="I118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J118" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="K118" t="s">
         <v>162</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s">
         <v>66</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B120" t="s">
         <v>67</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B121" t="s">
         <v>67</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AEB3F4-E0C2-7C44-982B-D6CE3361B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E3B25-24F7-C642-A1BF-90590D4E59EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G93" zoomScale="233" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="233" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1821,10 +1821,10 @@
         <v>169</v>
       </c>
       <c r="I12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" t="s">
         <v>170</v>
-      </c>
-      <c r="J12" t="s">
-        <v>171</v>
       </c>
       <c r="K12" t="s">
         <v>162</v>
@@ -1856,10 +1856,10 @@
         <v>169</v>
       </c>
       <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" t="s">
         <v>170</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
       </c>
       <c r="K13" t="s">
         <v>162</v>
@@ -3816,10 +3816,10 @@
         <v>169</v>
       </c>
       <c r="I69" t="s">
+        <v>171</v>
+      </c>
+      <c r="J69" t="s">
         <v>170</v>
-      </c>
-      <c r="J69" t="s">
-        <v>171</v>
       </c>
       <c r="K69" t="s">
         <v>162</v>
@@ -3851,10 +3851,10 @@
         <v>169</v>
       </c>
       <c r="I70" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" t="s">
         <v>170</v>
-      </c>
-      <c r="J70" t="s">
-        <v>171</v>
       </c>
       <c r="K70" t="s">
         <v>162</v>
@@ -4551,10 +4551,10 @@
         <v>169</v>
       </c>
       <c r="I90" t="s">
+        <v>171</v>
+      </c>
+      <c r="J90" t="s">
         <v>170</v>
-      </c>
-      <c r="J90" t="s">
-        <v>171</v>
       </c>
       <c r="K90" t="s">
         <v>162</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0E3B25-24F7-C642-A1BF-90590D4E59EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB636C9-52C7-764E-BDB0-D2748FD02E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="310">
   <si>
     <t>DOI</t>
   </si>
@@ -368,9 +368,6 @@
     <t>C18:1n9/C18:0</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>HbA1c (%)</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>NP T2 (ms)</t>
   </si>
   <si>
-    <t>Relative expression (S/S+L)</t>
-  </si>
-  <si>
     <t>% Ceacaml-S (S/S+L)</t>
   </si>
   <si>
@@ -533,9 +527,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Protein in cell percentage</t>
-  </si>
-  <si>
     <t>Cell percentage</t>
   </si>
   <si>
@@ -551,60 +542,36 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>RNA count</t>
-  </si>
-  <si>
-    <t>F1 score</t>
-  </si>
-  <si>
     <t>Prediction metric</t>
   </si>
   <si>
     <t>Total FGF23 (RU/mL)</t>
   </si>
   <si>
-    <t>Protein concentration</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
     <t>Cell count</t>
   </si>
   <si>
-    <t>Optical density</t>
-  </si>
-  <si>
     <t>Cell viability</t>
   </si>
   <si>
     <t>Mass</t>
   </si>
   <si>
-    <t>Biofluid biochemical concentration</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Ct value</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>Force</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
     <t>Statistics</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -614,9 +581,6 @@
     <t>Titer</t>
   </si>
   <si>
-    <t>Signal</t>
-  </si>
-  <si>
     <t>Fig Index</t>
   </si>
   <si>
@@ -996,6 +960,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Ratio (S/S+L)</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="233" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70:J70"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1430,24 +1397,24 @@
         <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1465,24 +1432,24 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
         <v>159</v>
       </c>
-      <c r="H2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" t="s">
-        <v>161</v>
-      </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1500,24 +1467,24 @@
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1535,24 +1502,24 @@
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1570,24 +1537,24 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1605,24 +1572,24 @@
         <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1640,24 +1607,24 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1675,24 +1642,24 @@
         <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1710,24 +1677,24 @@
         <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1745,24 +1712,24 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1780,24 +1747,24 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1815,24 +1782,24 @@
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1850,24 +1817,24 @@
         <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1885,16 +1852,16 @@
         <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1902,7 +1869,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1920,16 +1887,16 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1937,7 +1904,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1955,16 +1922,16 @@
         <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -1972,7 +1939,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1990,24 +1957,24 @@
         <v>83</v>
       </c>
       <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
         <v>159</v>
       </c>
-      <c r="H17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" t="s">
-        <v>161</v>
-      </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -2025,24 +1992,24 @@
         <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2060,24 +2027,24 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
         <v>169</v>
       </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -2095,24 +2062,24 @@
         <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" t="s">
         <v>169</v>
       </c>
-      <c r="I20" t="s">
-        <v>173</v>
-      </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2130,24 +2097,24 @@
         <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2165,24 +2132,24 @@
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -2200,24 +2167,24 @@
         <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -2235,24 +2202,24 @@
         <v>89</v>
       </c>
       <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
         <v>159</v>
       </c>
-      <c r="H24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" t="s">
-        <v>161</v>
-      </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2270,24 +2237,24 @@
         <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2305,24 +2272,24 @@
         <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2340,24 +2307,24 @@
         <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2375,24 +2342,24 @@
         <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2407,27 +2374,27 @@
         <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2445,16 +2412,16 @@
         <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -2462,7 +2429,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2480,24 +2447,24 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2515,24 +2482,24 @@
         <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2550,24 +2517,24 @@
         <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2585,24 +2552,24 @@
         <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2620,24 +2587,24 @@
         <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -2655,24 +2622,24 @@
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -2690,24 +2657,24 @@
         <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2725,24 +2692,24 @@
         <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2760,24 +2727,24 @@
         <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2795,24 +2762,24 @@
         <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2830,24 +2797,24 @@
         <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2865,24 +2832,24 @@
         <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2900,24 +2867,24 @@
         <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2935,24 +2902,24 @@
         <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2970,24 +2937,24 @@
         <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -3005,24 +2972,24 @@
         <v>96</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -3040,24 +3007,24 @@
         <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -3075,24 +3042,24 @@
         <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -3110,24 +3077,24 @@
         <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -3145,24 +3112,24 @@
         <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -3180,24 +3147,24 @@
         <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -3215,24 +3182,24 @@
         <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
@@ -3250,24 +3217,24 @@
         <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J53" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
@@ -3285,24 +3252,24 @@
         <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -3320,24 +3287,24 @@
         <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J55" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -3355,24 +3322,24 @@
         <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J56" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -3390,24 +3357,24 @@
         <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J57" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -3425,24 +3392,24 @@
         <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
@@ -3460,24 +3427,24 @@
         <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -3495,24 +3462,24 @@
         <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s">
         <v>43</v>
@@ -3527,27 +3494,27 @@
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I61" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J61" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -3562,27 +3529,27 @@
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -3597,27 +3564,27 @@
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -3632,27 +3599,27 @@
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I64" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J64" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3667,27 +3634,27 @@
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3702,27 +3669,27 @@
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -3737,27 +3704,27 @@
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
         <v>47</v>
@@ -3772,27 +3739,27 @@
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I68" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -3807,27 +3774,27 @@
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -3842,27 +3809,27 @@
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3877,27 +3844,27 @@
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3912,27 +3879,27 @@
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I72" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3947,19 +3914,19 @@
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I73" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K73">
         <v>10</v>
@@ -3967,7 +3934,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
@@ -3982,19 +3949,19 @@
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I74" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J74" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -4002,7 +3969,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
         <v>50</v>
@@ -4017,19 +3984,19 @@
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I75" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J75" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -4037,7 +4004,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
         <v>50</v>
@@ -4052,19 +4019,19 @@
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I76" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -4072,7 +4039,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
@@ -4087,19 +4054,19 @@
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I77" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J77" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -4107,7 +4074,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
@@ -4122,19 +4089,19 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I78" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -4142,7 +4109,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -4157,27 +4124,27 @@
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I79" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="J79" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -4192,27 +4159,27 @@
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I80" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="J80" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -4227,27 +4194,27 @@
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I81" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="J81" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -4262,27 +4229,27 @@
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
@@ -4297,27 +4264,27 @@
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
@@ -4332,27 +4299,27 @@
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
         <v>52</v>
@@ -4367,27 +4334,27 @@
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
         <v>52</v>
@@ -4402,27 +4369,27 @@
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
         <v>52</v>
@@ -4437,27 +4404,27 @@
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -4472,27 +4439,27 @@
         <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -4507,27 +4474,27 @@
         <v>7</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -4542,27 +4509,27 @@
         <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
         <v>54</v>
@@ -4577,27 +4544,27 @@
         <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I91" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J91" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
@@ -4612,27 +4579,27 @@
         <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I92" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J92" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
         <v>55</v>
@@ -4647,27 +4614,27 @@
         <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="G93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I93" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J93" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
         <v>55</v>
@@ -4682,27 +4649,27 @@
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="G94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I94" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J94" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
         <v>55</v>
@@ -4717,27 +4684,27 @@
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -4752,27 +4719,27 @@
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="G96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I96" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J96" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="K96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
         <v>56</v>
@@ -4787,27 +4754,27 @@
         <v>7</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G97" t="s">
+        <v>157</v>
+      </c>
+      <c r="H97" t="s">
+        <v>158</v>
+      </c>
+      <c r="I97" t="s">
         <v>159</v>
       </c>
-      <c r="H97" t="s">
-        <v>160</v>
-      </c>
-      <c r="I97" t="s">
-        <v>161</v>
-      </c>
       <c r="J97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
@@ -4822,27 +4789,27 @@
         <v>7</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
+        <v>157</v>
+      </c>
+      <c r="H98" t="s">
+        <v>158</v>
+      </c>
+      <c r="I98" t="s">
         <v>159</v>
       </c>
-      <c r="H98" t="s">
-        <v>160</v>
-      </c>
-      <c r="I98" t="s">
-        <v>161</v>
-      </c>
       <c r="J98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
@@ -4857,27 +4824,27 @@
         <v>7</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
+        <v>157</v>
+      </c>
+      <c r="H99" t="s">
+        <v>158</v>
+      </c>
+      <c r="I99" t="s">
         <v>159</v>
       </c>
-      <c r="H99" t="s">
-        <v>160</v>
-      </c>
-      <c r="I99" t="s">
-        <v>161</v>
-      </c>
       <c r="J99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -4892,19 +4859,19 @@
         <v>7</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J100" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K100">
         <v>10</v>
@@ -4912,7 +4879,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
         <v>57</v>
@@ -4927,19 +4894,19 @@
         <v>7</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K101">
         <v>10</v>
@@ -4947,7 +4914,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
         <v>58</v>
@@ -4962,27 +4929,27 @@
         <v>7</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
@@ -4997,19 +4964,19 @@
         <v>7</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J103" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K103">
         <v>10</v>
@@ -5017,7 +4984,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
@@ -5032,27 +4999,27 @@
         <v>7</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I104" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="J104" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
         <v>61</v>
@@ -5067,27 +5034,27 @@
         <v>7</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>61</v>
@@ -5102,27 +5069,27 @@
         <v>7</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5137,27 +5104,27 @@
         <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I107" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
@@ -5172,19 +5139,19 @@
         <v>7</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J108" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K108">
         <v>10</v>
@@ -5192,7 +5159,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>64</v>
@@ -5207,27 +5174,27 @@
         <v>7</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I109" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -5242,27 +5209,27 @@
         <v>7</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -5277,27 +5244,27 @@
         <v>7</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -5312,27 +5279,27 @@
         <v>7</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -5347,27 +5314,27 @@
         <v>7</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -5382,27 +5349,27 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -5417,27 +5384,27 @@
         <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B116" t="s">
         <v>66</v>
@@ -5452,27 +5419,27 @@
         <v>7</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I116" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J116" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B117" t="s">
         <v>66</v>
@@ -5487,27 +5454,27 @@
         <v>7</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
         <v>66</v>
@@ -5522,27 +5489,27 @@
         <v>7</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I118" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J118" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B119" t="s">
         <v>66</v>
@@ -5557,27 +5524,27 @@
         <v>7</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s">
         <v>67</v>
@@ -5592,19 +5559,19 @@
         <v>7</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -5612,7 +5579,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B121" t="s">
         <v>67</v>
@@ -5627,19 +5594,19 @@
         <v>7</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -5647,7 +5614,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -5662,19 +5629,19 @@
         <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -5682,7 +5649,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -5697,27 +5664,27 @@
         <v>7</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I123" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J123" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -5732,27 +5699,27 @@
         <v>7</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
@@ -5767,27 +5734,27 @@
         <v>7</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H125" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J125" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>
@@ -5802,22 +5769,22 @@
         <v>7</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I126" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K126" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB636C9-52C7-764E-BDB0-D2748FD02E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F8B88-8C1D-AC47-80AF-974E9158191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>10.1126:scitranslmed.adi7244</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Ear thickness (mm)</t>
   </si>
   <si>
@@ -497,12 +494,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -963,6 +954,15 @@
   </si>
   <si>
     <t>Ratio (S/S+L)</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1379,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1394,27 +1394,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1429,27 +1429,27 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1464,27 +1464,27 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1499,27 +1499,27 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1534,27 +1534,27 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1569,27 +1569,27 @@
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1604,27 +1604,27 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1639,27 +1639,27 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
         <v>161</v>
       </c>
-      <c r="H8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" t="s">
-        <v>164</v>
-      </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1674,27 +1674,27 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1709,27 +1709,27 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1744,27 +1744,27 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1779,27 +1779,27 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1814,27 +1814,27 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1849,19 +1849,19 @@
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1884,19 +1884,19 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1919,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1954,27 +1954,27 @@
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1989,27 +1989,27 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2024,27 +2024,27 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
         <v>166</v>
       </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -2059,27 +2059,27 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
         <v>166</v>
       </c>
-      <c r="I20" t="s">
-        <v>169</v>
-      </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2094,27 +2094,27 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2129,27 +2129,27 @@
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -2164,27 +2164,27 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -2199,27 +2199,27 @@
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2234,27 +2234,27 @@
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2269,27 +2269,27 @@
         <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2304,27 +2304,27 @@
         <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
         <v>161</v>
       </c>
-      <c r="H27" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" t="s">
-        <v>164</v>
-      </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2339,27 +2339,27 @@
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" t="s">
         <v>161</v>
       </c>
-      <c r="H28" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" t="s">
-        <v>164</v>
-      </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2374,27 +2374,27 @@
         <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2409,19 +2409,19 @@
         <v>7</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2444,27 +2444,27 @@
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2479,27 +2479,27 @@
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2514,27 +2514,27 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2549,27 +2549,27 @@
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2584,27 +2584,27 @@
         <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -2619,27 +2619,27 @@
         <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -2654,27 +2654,27 @@
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2689,27 +2689,27 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2724,27 +2724,27 @@
         <v>7</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2759,27 +2759,27 @@
         <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2794,27 +2794,27 @@
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2829,27 +2829,27 @@
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2864,27 +2864,27 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2899,27 +2899,27 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2934,27 +2934,27 @@
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -2969,27 +2969,27 @@
         <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -3004,27 +3004,27 @@
         <v>7</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -3039,27 +3039,27 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -3074,27 +3074,27 @@
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -3109,27 +3109,27 @@
         <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -3144,27 +3144,27 @@
         <v>7</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -3179,27 +3179,27 @@
         <v>7</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
@@ -3214,27 +3214,27 @@
         <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
@@ -3249,27 +3249,27 @@
         <v>7</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
@@ -3284,27 +3284,27 @@
         <v>7</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -3319,27 +3319,27 @@
         <v>7</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -3354,27 +3354,27 @@
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -3389,27 +3389,27 @@
         <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
@@ -3424,27 +3424,27 @@
         <v>7</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -3459,27 +3459,27 @@
         <v>7</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
         <v>43</v>
@@ -3494,27 +3494,27 @@
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -3529,27 +3529,27 @@
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -3564,27 +3564,27 @@
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -3599,27 +3599,27 @@
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3634,27 +3634,27 @@
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3669,27 +3669,27 @@
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -3704,27 +3704,27 @@
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B68" t="s">
         <v>47</v>
@@ -3739,27 +3739,27 @@
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -3774,27 +3774,27 @@
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -3809,27 +3809,27 @@
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3844,27 +3844,27 @@
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K71" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3879,27 +3879,27 @@
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K72" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3914,19 +3914,19 @@
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K73">
         <v>10</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
         <v>50</v>
@@ -3949,19 +3949,19 @@
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
         <v>50</v>
@@ -3984,19 +3984,19 @@
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
         <v>50</v>
@@ -4019,19 +4019,19 @@
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
@@ -4054,19 +4054,19 @@
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
@@ -4089,19 +4089,19 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -4124,27 +4124,27 @@
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -4159,27 +4159,27 @@
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -4194,27 +4194,27 @@
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -4229,27 +4229,27 @@
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
@@ -4264,27 +4264,27 @@
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
         <v>52</v>
@@ -4299,27 +4299,27 @@
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
         <v>52</v>
@@ -4334,27 +4334,27 @@
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
         <v>52</v>
@@ -4369,27 +4369,27 @@
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
         <v>52</v>
@@ -4404,27 +4404,27 @@
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -4439,27 +4439,27 @@
         <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
@@ -4474,27 +4474,27 @@
         <v>7</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -4509,27 +4509,27 @@
         <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K90" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
         <v>54</v>
@@ -4544,27 +4544,27 @@
         <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
         <v>54</v>
@@ -4579,27 +4579,27 @@
         <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K92" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B93" t="s">
         <v>55</v>
@@ -4614,27 +4614,27 @@
         <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G93" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
         <v>55</v>
@@ -4649,27 +4649,27 @@
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G94" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
         <v>55</v>
@@ -4684,27 +4684,27 @@
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -4719,27 +4719,27 @@
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G96" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
         <v>56</v>
@@ -4754,27 +4754,27 @@
         <v>7</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
@@ -4789,27 +4789,27 @@
         <v>7</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H98" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J98" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
@@ -4824,27 +4824,27 @@
         <v>7</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K99" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -4859,19 +4859,19 @@
         <v>7</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I100" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J100" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K100">
         <v>10</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B101" t="s">
         <v>57</v>
@@ -4894,19 +4894,19 @@
         <v>7</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K101">
         <v>10</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B102" t="s">
         <v>58</v>
@@ -4929,27 +4929,27 @@
         <v>7</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
@@ -4964,19 +4964,19 @@
         <v>7</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H103" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I103" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K103">
         <v>10</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
@@ -4999,27 +4999,27 @@
         <v>7</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K104" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B105" t="s">
         <v>61</v>
@@ -5034,27 +5034,27 @@
         <v>7</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105" t="s">
         <v>161</v>
       </c>
-      <c r="H105" t="s">
-        <v>163</v>
-      </c>
-      <c r="I105" t="s">
-        <v>164</v>
-      </c>
       <c r="J105" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B106" t="s">
         <v>61</v>
@@ -5069,27 +5069,27 @@
         <v>7</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>160</v>
+      </c>
+      <c r="I106" t="s">
         <v>161</v>
       </c>
-      <c r="H106" t="s">
-        <v>163</v>
-      </c>
-      <c r="I106" t="s">
-        <v>164</v>
-      </c>
       <c r="J106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K106" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5104,27 +5104,27 @@
         <v>7</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G107" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K107" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
@@ -5139,19 +5139,19 @@
         <v>7</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G108" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H108" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J108" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K108">
         <v>10</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
         <v>64</v>
@@ -5174,27 +5174,27 @@
         <v>7</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G109" t="s">
+        <v>158</v>
+      </c>
+      <c r="H109" t="s">
+        <v>160</v>
+      </c>
+      <c r="I109" t="s">
         <v>161</v>
       </c>
-      <c r="H109" t="s">
-        <v>163</v>
-      </c>
-      <c r="I109" t="s">
-        <v>164</v>
-      </c>
       <c r="J109" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -5209,27 +5209,27 @@
         <v>7</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -5244,27 +5244,27 @@
         <v>7</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G111" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -5279,27 +5279,27 @@
         <v>7</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -5314,27 +5314,27 @@
         <v>7</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K113" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -5349,27 +5349,27 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H114" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I114" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J114" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -5384,27 +5384,27 @@
         <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B116" t="s">
         <v>66</v>
@@ -5419,27 +5419,27 @@
         <v>7</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J116" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B117" t="s">
         <v>66</v>
@@ -5454,27 +5454,27 @@
         <v>7</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K117" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B118" t="s">
         <v>66</v>
@@ -5489,27 +5489,27 @@
         <v>7</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I118" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J118" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B119" t="s">
         <v>66</v>
@@ -5524,27 +5524,27 @@
         <v>7</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
         <v>67</v>
@@ -5559,19 +5559,19 @@
         <v>7</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G120" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B121" t="s">
         <v>67</v>
@@ -5594,19 +5594,19 @@
         <v>7</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -5629,19 +5629,19 @@
         <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G122" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -5664,27 +5664,27 @@
         <v>7</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I123" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J123" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K123" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -5699,27 +5699,27 @@
         <v>7</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G124" t="s">
+        <v>158</v>
+      </c>
+      <c r="H124" t="s">
+        <v>160</v>
+      </c>
+      <c r="I124" t="s">
         <v>161</v>
       </c>
-      <c r="H124" t="s">
-        <v>163</v>
-      </c>
-      <c r="I124" t="s">
-        <v>164</v>
-      </c>
       <c r="J124" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
@@ -5734,27 +5734,27 @@
         <v>7</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G125" t="s">
+        <v>158</v>
+      </c>
+      <c r="H125" t="s">
+        <v>160</v>
+      </c>
+      <c r="I125" t="s">
         <v>161</v>
       </c>
-      <c r="H125" t="s">
-        <v>163</v>
-      </c>
-      <c r="I125" t="s">
-        <v>164</v>
-      </c>
       <c r="J125" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>
@@ -5769,22 +5769,22 @@
         <v>7</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H126" t="s">
+        <v>160</v>
+      </c>
+      <c r="I126" t="s">
         <v>161</v>
       </c>
-      <c r="H126" t="s">
-        <v>163</v>
-      </c>
-      <c r="I126" t="s">
-        <v>164</v>
-      </c>
       <c r="J126" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
